--- a/biology/Histoire de la zoologie et de la botanique/James_John_Joicey/James_John_Joicey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_John_Joicey/James_John_Joicey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James John Joicey (1870-1932) est un entomologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est à l'origine d'une collection de plus d'1,5 million de spécimens de Lepidoptera conservés dans son musée du Surrey, le Hill Museum. De nombreux entomologistes ont travaillé dans sa collection, notamment George Talbot qui en fut le conservateur.
 Membre de la Zoological Society of London, de la Royal Geographical Society, de la Royal Entomological Society, Royal Horticultural Society et de Linnean Society of London, il est à l'origine de près de deux cents articles scientifiques et son étude des Lepidoptera est reconnu comme « d'une grande valeur scientifique » par ses pairs.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En collaboration avec George Talbot :
 New Species of Heterocera from Dutch New Guinea. Annals and Magazine of Natural History (Eighth series) 15 (87): 295-301, pl. XII (1915)
